--- a/pred_ohlcv/54_21/2019-10-29 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 ENJ ohlcv.xlsx
@@ -2186,7 +2186,7 @@
         <v>95754.38229999992</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>95754.38229999992</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>95754.38229999992</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>95754.38229999992</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>187008.3814</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>188008.3814</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>205353.0505</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>268884.3409</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>262852.5391999999</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>261602.5391999999</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>287256.4239999999</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>289407.4239999999</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>309397.4239999999</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>309397.4239999999</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>279397.4239999999</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>12247830.55727678</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>12247830.55727678</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>12247830.55727678</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>12247830.55727678</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>12247830.55727678</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>12247830.55727678</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>18872187.05907679</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>18869447.05907679</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>18867953.60627679</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>18835942.80577679</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>18834942.80577679</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>18836962.80577679</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>18840552.80577679</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>18840552.80577679</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>18822131.61417679</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>18822686.63697679</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>18806598.02207679</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>18806458.34337679</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>18817181.26417679</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>18825065.26417679</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>18825065.26417679</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>18825065.26417679</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>18825065.26417679</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>18834955.26417679</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>18853525.26417679</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>18850670.68277679</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>18850670.68277679</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>18840936.31277679</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>18840936.31277679</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-29 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 ENJ ohlcv.xlsx
@@ -2212,7 +2212,7 @@
         <v>95754.38229999992</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>95754.38229999992</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>95754.38229999992</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>118800.3403999999</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>125328.4314999999</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>125328.4314999999</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>125328.4314999999</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>134895.1562999999</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>134428.3869</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>134428.3869</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>134428.3869</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>146854.3869</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>151207.3513</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>154474.3513</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>154474.3513</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>154474.3513</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>155505.6665</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>155505.6665</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>155505.6665</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>155505.6665</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>155505.6665</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>157841.6665</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>157841.6665</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>157841.6665</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>167841.6665</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>156811.6665</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>156811.6665</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>157751.6665</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>157751.6665</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>157751.6665</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>152751.6665</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>156751.6665</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>175749.6131</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>175749.6131</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>175749.6131</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>175749.6131</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>180754.6131</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>187008.3814</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>188008.3814</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>205353.0505</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>268884.3409</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>262852.5391999999</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>261602.5391999999</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>287256.4239999999</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>289407.4239999999</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>309397.4239999999</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>309397.4239999999</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>279397.4239999999</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>12247830.55727678</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>12247830.55727678</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>12247830.55727678</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>12247830.55727678</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>12247830.55727678</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>12247830.55727678</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>18661383.57207678</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>18661383.57207678</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>18631238.68127678</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>18615873.00787678</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>18598916.30257678</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>18467295.94497678</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>18477925.94497678</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>18872187.05907679</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>18835942.80577679</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>18836962.80577679</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>18840552.80577679</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>18840552.80577679</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>18822131.61417679</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>18822686.63697679</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>18806458.34337679</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>18817181.26417679</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>18822181.26417679</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>18825065.26417679</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>18825065.26417679</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>18825065.26417679</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>18825065.26417679</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>18825065.26417679</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>18834955.26417679</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>18853525.26417679</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>18850670.68277679</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>18850670.68277679</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
